--- a/aaanalysis/data/scales_raw.xlsx
+++ b/aaanalysis/data/scales_raw.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="selected" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23542" uniqueCount="4110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23541" uniqueCount="4109">
   <si>
     <t xml:space="preserve">AA</t>
   </si>
@@ -12348,9 +12348,6 @@
   </si>
   <si>
     <t xml:space="preserve">-0.171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discarded due to missing values</t>
   </si>
 </sst>
 </file>
@@ -12453,7 +12450,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -12476,10 +12473,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -12561,11 +12554,11 @@
   </sheetPr>
   <dimension ref="A1:UH21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -47527,10 +47520,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:UU23"/>
+  <dimension ref="A1:UU21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="UU21" activeCellId="0" sqref="UU21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -83301,17 +83294,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>4109</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A23:C23"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
